--- a/static/assets/template_files/cooperative_member_update_template_file.xlsx
+++ b/static/assets/template_files/cooperative_member_update_template_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PROJECTS\HAMWE\Nyowe\Files\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56357BBD-9C1C-4224-9E4B-7EE6B32BFC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3499BF73-4C0A-4A85-9EDF-51B8551608CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" xr2:uid="{999B6B01-2477-4AA1-AA04-1FE2F406149C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{B7587706-80E8-46BA-BC3F-91174E42223F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Farmer name</t>
   </si>
@@ -81,17 +81,38 @@
     <t>VERIFIED_RECORD</t>
   </si>
   <si>
-    <t>User ID</t>
+    <t>User_ID</t>
+  </si>
+  <si>
+    <t>Productive Shea Trees</t>
+  </si>
+  <si>
+    <t>Qty of Shea harvested last season</t>
+  </si>
+  <si>
+    <t>Sunflower acreage planted last year</t>
+  </si>
+  <si>
+    <t>Kgs of sunflower planted last season</t>
+  </si>
+  <si>
+    <t>Kgs of sunflower collected last season</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -119,8 +140,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,28 +455,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF57A35C-346D-419A-84DC-D25D867FD95F}">
-  <dimension ref="A1:P12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A43AB0A-E069-4D28-87AB-D55A86A3E2E5}">
+  <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.90625" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.1796875" customWidth="1"/>
-    <col min="16" max="16" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.54296875" customWidth="1"/>
+    <col min="17" max="17" width="29.08984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="30.90625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -498,69 +524,55 @@
       <c r="N1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="U1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D2" s="1"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="D2" s="2"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D3" s="1"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="D3" s="2"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D4" s="1"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="D4" s="2"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D5" s="1"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="D5" s="2"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D6" s="1"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D7" s="1"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D8" s="1"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D9" s="1"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D10" s="1"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D11" s="1"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="D12" s="1"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="D6" s="2"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>